--- a/data/trans_dic/P1805_2016_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1805_2016_2023-Edad-trans_dic.xlsx
@@ -612,7 +612,7 @@
         <v>0.01970046692001894</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.04515631489968942</v>
+        <v>0.04515631489968943</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.02070320977882833</v>
@@ -624,7 +624,7 @@
         <v>0.02018725757275401</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.04994072913229556</v>
+        <v>0.04994072913229557</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.009144727658559792</v>
+        <v>0.00904254191320749</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01946196183189961</v>
+        <v>0.01879272012285246</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.009042125784533389</v>
+        <v>0.009319220810015547</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02951118626179068</v>
+        <v>0.02699041208927658</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01172309172810344</v>
+        <v>0.01123916944612165</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03180311076898844</v>
+        <v>0.02863045998502615</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0372936720267286</v>
+        <v>0.03482150691673213</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09321206407135879</v>
+        <v>0.08585048116769378</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04158947203885028</v>
+        <v>0.04130972802832676</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09907699573726132</v>
+        <v>0.095803549643662</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03329033080889416</v>
+        <v>0.03233992301679244</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08148632890624991</v>
+        <v>0.07563093081220662</v>
       </c>
     </row>
     <row r="7">
@@ -694,7 +694,7 @@
         <v>0.01267769615945943</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.02704078012134283</v>
+        <v>0.02704078012134282</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.02111258642462284</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.005550572105237565</v>
+        <v>0.005158814928202317</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01262319646483818</v>
+        <v>0.01281457776181472</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01123660865288801</v>
+        <v>0.01061269136379017</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02209346209889381</v>
+        <v>0.02303388758917317</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.009911313214340772</v>
+        <v>0.01047357440966051</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02229375578641922</v>
+        <v>0.02197359835621641</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02559662579758637</v>
+        <v>0.02576192156139539</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05040507419675479</v>
+        <v>0.05451799978803581</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03494536830720955</v>
+        <v>0.03502558314168804</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06186554193307192</v>
+        <v>0.06402633630053638</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02524485109953272</v>
+        <v>0.0265096857612811</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05179716804715596</v>
+        <v>0.04935509862842966</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +776,7 @@
         <v>0.02598580217492162</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.03945693401795808</v>
+        <v>0.03945693401795807</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.03218996119972217</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01450582754477651</v>
+        <v>0.0157050352994668</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02531972383475782</v>
+        <v>0.02463835232369862</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02072510092326475</v>
+        <v>0.02095161109248939</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03080642436148162</v>
+        <v>0.03097115815193405</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02118847117479297</v>
+        <v>0.02049559112576928</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03127954730423501</v>
+        <v>0.03100616737879481</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04016465738820665</v>
+        <v>0.04108157369896098</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06198150614326346</v>
+        <v>0.05935764276844622</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04953791832406365</v>
+        <v>0.04904324023802143</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06063070158254365</v>
+        <v>0.06029979009288747</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03921939293900117</v>
+        <v>0.04045135769675336</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05452548958474361</v>
+        <v>0.05368266480940586</v>
       </c>
     </row>
     <row r="13">
@@ -858,19 +858,19 @@
         <v>0.01896885897238048</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.05246196195121811</v>
+        <v>0.0524619619512181</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.04203399810411055</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.04556267760205354</v>
+        <v>0.04556267760205356</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.03052839736733966</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.04892528290109152</v>
+        <v>0.04892528290109153</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.009822421683949648</v>
+        <v>0.01081590698438138</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03636869639641089</v>
+        <v>0.03518302155294544</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02847436948685682</v>
+        <v>0.02840632572917675</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03479519382838463</v>
+        <v>0.03430535674617451</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02179950424930243</v>
+        <v>0.02137844808781297</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03887808279981544</v>
+        <v>0.0396499184002289</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03174146343799145</v>
+        <v>0.03209808541323852</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07278363447397877</v>
+        <v>0.07312852254836429</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06327005010364785</v>
+        <v>0.06197123365455924</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05948024864113232</v>
+        <v>0.05814247951041846</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04192375993733188</v>
+        <v>0.04113180496405063</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05972199660164225</v>
+        <v>0.06153347683344946</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>0.0548102946539725</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.05048775496955522</v>
+        <v>0.05048775496955523</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.03638129214244445</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.006702933241731776</v>
+        <v>0.006778328090506704</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01776168518164737</v>
+        <v>0.01724136866641685</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03595686825709424</v>
+        <v>0.0364446639291242</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03858297588369197</v>
+        <v>0.03836209442966017</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02603368145217757</v>
+        <v>0.02539848243592339</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03069218462119653</v>
+        <v>0.03140704152448258</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03379290749699838</v>
+        <v>0.03425812247298868</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04478262054942189</v>
+        <v>0.0452251029683876</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07876690954366933</v>
+        <v>0.08092788691130411</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06532293202101366</v>
+        <v>0.06706671382123811</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0512689535943477</v>
+        <v>0.05188631671963577</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04985367514588353</v>
+        <v>0.04942953825452764</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>0.04372046238796808</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.03249331080985481</v>
+        <v>0.03249331080985479</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.02840925270937555</v>
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.002768741950764764</v>
+        <v>0.002767441250540799</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.003614275516369162</v>
+        <v>0.002886307573160719</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02587885979464229</v>
+        <v>0.02400155542429612</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02213247737475095</v>
+        <v>0.02168645990472632</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01802769978883762</v>
+        <v>0.01732337712990404</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01430520860430162</v>
+        <v>0.01450996806160736</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02807385608190935</v>
+        <v>0.02830057181486104</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02019950051350399</v>
+        <v>0.01840976447151995</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.07225883778603602</v>
+        <v>0.07259272678867522</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04665652151050791</v>
+        <v>0.04683494300097687</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.04742338946468007</v>
+        <v>0.04586081382732568</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.0294314349504939</v>
+        <v>0.02938227994496629</v>
       </c>
     </row>
     <row r="22">
@@ -1116,7 +1116,7 @@
         <v>0.03386081500990362</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.0192136406421894</v>
+        <v>0.01921364064218939</v>
       </c>
     </row>
     <row r="23">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.00312728740013136</v>
+        <v>0.003485856127360682</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.003574191448797927</v>
+        <v>0.003503275720685317</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02580007137745674</v>
+        <v>0.02560777520867953</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01423750303743542</v>
+        <v>0.01529390782546163</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02059878620029608</v>
+        <v>0.02060111726893342</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01199789424696548</v>
+        <v>0.01278769463659078</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03693856747165591</v>
+        <v>0.03527253972621825</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0238931873992219</v>
+        <v>0.02515863573018041</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.07295261748619508</v>
+        <v>0.08085870517268319</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.04138168471888085</v>
+        <v>0.03879398687376567</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05184859021958266</v>
+        <v>0.05286067075274626</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.02927678816205182</v>
+        <v>0.02965483867070553</v>
       </c>
     </row>
     <row r="25">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01378210242144679</v>
+        <v>0.01381486521932425</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0260022645803526</v>
+        <v>0.02671027860354879</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03097832295431817</v>
+        <v>0.03096975828224681</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.03665668370703861</v>
+        <v>0.0355555203766823</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02370652287993969</v>
+        <v>0.02350293450290672</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.03322955044249112</v>
+        <v>0.0333710686419047</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02326835330569722</v>
+        <v>0.02332095191740951</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04118333009584633</v>
+        <v>0.04158450212502518</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.04452888334923696</v>
+        <v>0.04470853205021531</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.04866720368316724</v>
+        <v>0.04845278414953993</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.03182202900836666</v>
+        <v>0.03188838294919832</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.04285481048967529</v>
+        <v>0.043084504302183</v>
       </c>
     </row>
     <row r="28">
@@ -1440,22 +1440,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3836</v>
+        <v>3793</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7936</v>
+        <v>7664</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3578</v>
+        <v>3688</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10698</v>
+        <v>9784</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>9557</v>
+        <v>9162</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>24498</v>
+        <v>22054</v>
       </c>
     </row>
     <row r="7">
@@ -1466,22 +1466,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15643</v>
+        <v>14606</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>38011</v>
+        <v>35009</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16459</v>
+        <v>16349</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>35917</v>
+        <v>34730</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>27139</v>
+        <v>26364</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>62769</v>
+        <v>58259</v>
       </c>
     </row>
     <row r="8">
@@ -1548,22 +1548,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3278</v>
+        <v>3046</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6020</v>
+        <v>6111</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6332</v>
+        <v>5981</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>11071</v>
+        <v>11542</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>11438</v>
+        <v>12087</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>21803</v>
+        <v>21490</v>
       </c>
     </row>
     <row r="11">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>15115</v>
+        <v>15212</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>24038</v>
+        <v>25999</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>19693</v>
+        <v>19738</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>31000</v>
+        <v>32083</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>29134</v>
+        <v>30593</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>50656</v>
+        <v>48268</v>
       </c>
     </row>
     <row r="12">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9706</v>
+        <v>10508</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>15719</v>
+        <v>15296</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13707</v>
+        <v>13857</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>19166</v>
+        <v>19268</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>28191</v>
+        <v>27269</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>38880</v>
+        <v>38540</v>
       </c>
     </row>
     <row r="15">
@@ -1682,22 +1682,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>26874</v>
+        <v>27488</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>38480</v>
+        <v>36851</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>32764</v>
+        <v>32437</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>37721</v>
+        <v>37515</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>52181</v>
+        <v>53820</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>67774</v>
+        <v>66726</v>
       </c>
     </row>
     <row r="16">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6346</v>
+        <v>6988</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>25481</v>
+        <v>24650</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>18482</v>
+        <v>18438</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>25640</v>
+        <v>25279</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>28233</v>
+        <v>27688</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>55887</v>
+        <v>56997</v>
       </c>
     </row>
     <row r="19">
@@ -1790,22 +1790,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>20507</v>
+        <v>20737</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>50993</v>
+        <v>51235</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>41067</v>
+        <v>40224</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>43830</v>
+        <v>42844</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>54297</v>
+        <v>53271</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>85851</v>
+        <v>88455</v>
       </c>
     </row>
     <row r="20">
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3203</v>
+        <v>3239</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10823</v>
+        <v>10506</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>17865</v>
+        <v>18107</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>23465</v>
+        <v>23331</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>25377</v>
+        <v>24758</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>37368</v>
+        <v>38239</v>
       </c>
     </row>
     <row r="23">
@@ -1898,22 +1898,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>16150</v>
+        <v>16373</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>27288</v>
+        <v>27558</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>39135</v>
+        <v>40209</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>39728</v>
+        <v>40788</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>49975</v>
+        <v>50577</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>60698</v>
+        <v>60181</v>
       </c>
     </row>
     <row r="24">
@@ -1980,22 +1980,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1471</v>
+        <v>1175</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>9776</v>
+        <v>9067</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>9720</v>
+        <v>9524</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>12837</v>
+        <v>12336</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>12106</v>
+        <v>12279</v>
       </c>
     </row>
     <row r="27">
@@ -2006,22 +2006,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>9386</v>
+        <v>9462</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>8223</v>
+        <v>7494</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>27297</v>
+        <v>27423</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>20490</v>
+        <v>20568</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>33770</v>
+        <v>32657</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>24906</v>
+        <v>24865</v>
       </c>
     </row>
     <row r="28">
@@ -2088,22 +2088,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>804</v>
+        <v>896</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1109</v>
+        <v>1087</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>10324</v>
+        <v>10247</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>6606</v>
+        <v>7097</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>13537</v>
+        <v>13538</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>9289</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="31">
@@ -2114,22 +2114,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>9493</v>
+        <v>9065</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>7412</v>
+        <v>7804</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>29193</v>
+        <v>32357</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>19202</v>
+        <v>18001</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>34073</v>
+        <v>34738</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>22666</v>
+        <v>22959</v>
       </c>
     </row>
     <row r="32">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>46781</v>
+        <v>46892</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>91860</v>
+        <v>94361</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>109804</v>
+        <v>109774</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>136875</v>
+        <v>132763</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>164497</v>
+        <v>163084</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>241470</v>
+        <v>242499</v>
       </c>
     </row>
     <row r="35">
@@ -2222,22 +2222,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>78981</v>
+        <v>79159</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>145491</v>
+        <v>146908</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>157834</v>
+        <v>158471</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>181722</v>
+        <v>180921</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>220810</v>
+        <v>221270</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>311414</v>
+        <v>313084</v>
       </c>
     </row>
     <row r="36">
